--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -9,7 +9,8 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1600" yWindow="1460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-28280" yWindow="460" windowWidth="28120" windowHeight="17540" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -32,7 +33,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -296,9 +297,6 @@
     <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
   </si>
   <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
     <t>specie_6</t>
   </si>
   <si>
@@ -396,6 +394,9 @@
   </si>
   <si>
     <t>U238</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
   </si>
 </sst>
 </file>
@@ -406,7 +407,7 @@
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -450,6 +451,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -498,7 +511,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -523,6 +536,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -906,6 +929,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -959,6 +983,7 @@
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1036,6 +1061,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1081,6 +1107,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1138,9 +1165,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:G3"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1187,7 +1215,7 @@
         <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -1219,7 +1247,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1283,7 +1314,7 @@
         <v>9.9999999999999998E-13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1328,10 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="1">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1356,7 +1390,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1380,7 +1414,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -1404,7 +1438,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1429,7 +1463,7 @@
       </c>
       <c r="D5"/>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1455,7 +1489,7 @@
       </c>
       <c r="D6"/>
       <c r="E6" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1470,46 +1504,49 @@
       <c r="J6"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="10">
         <v>6</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="11">
         <v>0</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="12" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="1">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11">
         <v>10</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="11">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>101</v>
+      <c r="H8" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1528,22 +1565,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView zoomScale="128" zoomScaleNormal="128" zoomScalePageLayoutView="128" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="184" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="9.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="18.33203125" style="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.83203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="18.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1562,7 +1597,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2">
         <v>1.4799999999999999E-4</v>
@@ -1570,7 +1605,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2">
         <v>2.0000000000000001E-4</v>
@@ -1586,7 +1621,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2">
         <v>5.0000000000000001E-4</v>
@@ -1594,7 +1629,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2">
         <v>1E-3</v>
@@ -1602,7 +1637,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B7" s="2">
         <v>2E-3</v>
@@ -1622,6 +1657,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1646,7 +1682,7 @@
         <v>47</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>3</v>
@@ -1666,7 +1702,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="7">
         <v>0</v>
@@ -1685,7 +1721,7 @@
         <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -1704,7 +1740,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -1723,7 +1759,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -1733,16 +1769,16 @@
     </row>
     <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
@@ -1766,6 +1802,7 @@
     <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1800,10 +1837,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1811,10 +1848,10 @@
         <v>24</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="6">
         <v>2000</v>
@@ -1826,10 +1863,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="6">
         <v>2.9999999999999997E-4</v>
@@ -1843,10 +1880,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="6">
         <v>2.9999999999999997E-4</v>
@@ -1860,7 +1897,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
         <v>46</v>
@@ -1881,7 +1918,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1922,10 +1962,10 @@
     </row>
     <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>77</v>
@@ -1934,10 +1974,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -9,8 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
-    <workbookView xWindow="-28280" yWindow="460" windowWidth="28120" windowHeight="17540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="37580" windowHeight="21140" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -21,15 +20,17 @@
     <sheet name="Concentrations" sheetId="10" r:id="rId6"/>
     <sheet name="Reactions" sheetId="4" r:id="rId7"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId8"/>
-    <sheet name="Parameters" sheetId="5" r:id="rId9"/>
-    <sheet name="References" sheetId="6" r:id="rId10"/>
-    <sheet name="Cross references" sheetId="12" r:id="rId11"/>
+    <sheet name="Biomass components" sheetId="13" r:id="rId9"/>
+    <sheet name="Biomass reactions" sheetId="14" r:id="rId10"/>
+    <sheet name="Parameters" sheetId="5" r:id="rId11"/>
+    <sheet name="References" sheetId="6" r:id="rId12"/>
+    <sheet name="Cross references" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Parameters!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">References!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">References!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!#REF!</definedName>
   </definedNames>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -342,18 +343,6 @@
     <t>specie_4[c]</t>
   </si>
   <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>Metabolism production</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>[c]: (2) specie_2 ==&gt; biomass</t>
-  </si>
-  <si>
     <t>backward</t>
   </si>
   <si>
@@ -397,6 +386,54 @@
   </si>
   <si>
     <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Biomass reaction</t>
+  </si>
+  <si>
+    <t>Objective function</t>
+  </si>
+  <si>
+    <t>Coefficient</t>
+  </si>
+  <si>
+    <t>biomass_id_001</t>
+  </si>
+  <si>
+    <t>biomass_comp_1</t>
+  </si>
+  <si>
+    <t>Metabolism_biomass</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>biomass_id_002</t>
+  </si>
+  <si>
+    <t>biomass_comp_2</t>
+  </si>
+  <si>
+    <t>biomass_id_003</t>
+  </si>
+  <si>
+    <t>biomass_comp_3</t>
+  </si>
+  <si>
+    <t>biomass_id_004</t>
+  </si>
+  <si>
+    <t>biomass_comp_4</t>
+  </si>
+  <si>
+    <t>Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>For testing</t>
   </si>
 </sst>
 </file>
@@ -407,7 +444,7 @@
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -464,8 +501,24 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -476,6 +529,17 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -497,7 +561,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -510,8 +574,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -543,11 +608,22 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="12"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -560,6 +636,7 @@
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="9"/>
+    <cellStyle name="Normal 3" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -929,7 +1006,6 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -980,10 +1056,125 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.1640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1056,12 +1247,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1107,7 +1297,6 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1163,12 +1352,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G3"/>
+    <sheetView zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="155" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1176,12 +1364,15 @@
     <col min="2" max="2" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="5" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -1195,16 +1386,22 @@
         <v>2</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1215,13 +1412,22 @@
         <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="H2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1234,7 +1440,7 @@
       <c r="D3" t="s">
         <v>73</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1250,7 +1456,6 @@
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1314,7 +1519,7 @@
         <v>9.9999999999999998E-13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1325,13 +1530,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-    <sheetView tabSelected="1" zoomScale="156" zoomScaleNormal="156" zoomScalePageLayoutView="156" workbookViewId="1">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1390,7 +1592,7 @@
         <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -1414,7 +1616,7 @@
         <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -1438,7 +1640,7 @@
         <v>77</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F4" s="1">
         <v>3</v>
@@ -1463,7 +1665,7 @@
       </c>
       <c r="D5"/>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1489,7 +1691,7 @@
       </c>
       <c r="D6"/>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1515,7 +1717,7 @@
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F7" s="10">
         <v>6</v>
@@ -1525,28 +1727,6 @@
       </c>
       <c r="H7" s="12" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11">
-        <v>10</v>
-      </c>
-      <c r="G8" s="11">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1565,10 +1745,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="184" workbookViewId="0">
+    <sheetView zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="184" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1629,7 +1808,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2">
         <v>1E-3</v>
@@ -1637,7 +1816,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2">
         <v>2E-3</v>
@@ -1654,10 +1833,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
-    <sheetView workbookViewId="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1766,23 +1946,6 @@
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5">
@@ -1802,7 +1965,6 @@
     <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
       <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1840,7 +2002,7 @@
         <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1851,7 +2013,7 @@
         <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D3" s="6">
         <v>2000</v>
@@ -1866,7 +2028,7 @@
         <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D4" s="6">
         <v>2.9999999999999997E-4</v>
@@ -1880,10 +2042,10 @@
         <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D5" s="6">
         <v>2.9999999999999997E-4</v>
@@ -1916,72 +2078,120 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.1640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="13.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="C1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>95</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="17">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="17">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="37580" windowHeight="21140" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="1600" yWindow="1460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
   <si>
     <t>ID</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>For testing</t>
+  </si>
+  <si>
+    <t>Min flux</t>
+  </si>
+  <si>
+    <t>Max flux</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1361,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="155" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1833,10 +1839,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1848,7 +1854,7 @@
     <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="5" t="s">
         <v>36</v>
       </c>
@@ -1864,14 +1870,20 @@
       <c r="E1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1884,13 +1896,19 @@
       <c r="D2" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>24</v>
       </c>
@@ -1903,13 +1921,15 @@
       <c r="D3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E3" s="7">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1922,13 +1942,15 @@
       <c r="D4" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>26</v>
       </c>
@@ -1941,11 +1963,13 @@
       <c r="D5" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D5">

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="-14420" yWindow="22060" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -440,6 +440,18 @@
   </si>
   <si>
     <t>Max flux</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>H2O[e]</t>
+  </si>
+  <si>
+    <t>H2O[c]</t>
   </si>
 </sst>
 </file>
@@ -582,7 +594,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -627,6 +639,9 @@
     <xf numFmtId="11" fontId="8" fillId="0" borderId="0" xfId="12" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="12" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1536,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1735,6 +1750,23 @@
         <v>76</v>
       </c>
     </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="19">
+        <v>18.0152</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:J6">
     <sortState ref="A2:L147">
@@ -1749,10 +1781,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="184" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="184" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1828,6 +1860,22 @@
         <v>2E-3</v>
       </c>
     </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:B5">
     <sortCondition ref="A2:A5"/>
@@ -1841,7 +1889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-14420" yWindow="22060" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="1820" yWindow="1460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Biomass reactions" sheetId="14" r:id="rId10"/>
     <sheet name="Parameters" sheetId="5" r:id="rId11"/>
     <sheet name="References" sheetId="6" r:id="rId12"/>
-    <sheet name="Cross references" sheetId="12" r:id="rId13"/>
+    <sheet name="Database references" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
@@ -34,7 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1272,7 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1783,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="184" workbookViewId="0">
+    <sheetView zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="184" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="1460" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="2000" yWindow="1580" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="135">
   <si>
     <t>ID</t>
   </si>
@@ -594,7 +594,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -641,6 +641,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1077,34 +1080,38 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="15"/>
+    <col min="3" max="3" width="23.1640625" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>36</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>118</v>
       </c>
@@ -1112,6 +1119,9 @@
         <v>126</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1272,7 +1282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1784,7 +1794,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="184" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1580" windowWidth="25600" windowHeight="15540" tabRatio="500" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="2000" yWindow="1580" windowWidth="33340" windowHeight="15340" tabRatio="500" firstSheet="3" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -25,6 +25,9 @@
     <sheet name="Parameters" sheetId="5" r:id="rId11"/>
     <sheet name="References" sheetId="6" r:id="rId12"/>
     <sheet name="Database references" sheetId="12" r:id="rId13"/>
+    <sheet name="Functions" sheetId="15" r:id="rId14"/>
+    <sheet name="Observables" sheetId="16" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="17" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
@@ -1082,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1319,6 +1322,42 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1580" windowWidth="33340" windowHeight="15340" tabRatio="500" firstSheet="3" activeTab="15"/>
+    <workbookView xWindow="2000" yWindow="1580" windowWidth="33340" windowHeight="15340" tabRatio="500" firstSheet="3" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -18,22 +18,22 @@
     <sheet name="Compartments" sheetId="2" r:id="rId4"/>
     <sheet name="Species types" sheetId="3" r:id="rId5"/>
     <sheet name="Concentrations" sheetId="10" r:id="rId6"/>
-    <sheet name="Reactions" sheetId="4" r:id="rId7"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId8"/>
-    <sheet name="Biomass components" sheetId="13" r:id="rId9"/>
-    <sheet name="Biomass reactions" sheetId="14" r:id="rId10"/>
-    <sheet name="Parameters" sheetId="5" r:id="rId11"/>
-    <sheet name="References" sheetId="6" r:id="rId12"/>
-    <sheet name="Database references" sheetId="12" r:id="rId13"/>
-    <sheet name="Functions" sheetId="15" r:id="rId14"/>
-    <sheet name="Observables" sheetId="16" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="17" r:id="rId16"/>
+    <sheet name="Observables" sheetId="16" r:id="rId7"/>
+    <sheet name="Functions" sheetId="15" r:id="rId8"/>
+    <sheet name="Reactions" sheetId="4" r:id="rId9"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId10"/>
+    <sheet name="Biomass components" sheetId="13" r:id="rId11"/>
+    <sheet name="Biomass reactions" sheetId="14" r:id="rId12"/>
+    <sheet name="Parameters" sheetId="5" r:id="rId13"/>
+    <sheet name="Stop conditions" sheetId="17" r:id="rId14"/>
+    <sheet name="References" sheetId="6" r:id="rId15"/>
+    <sheet name="Database references" sheetId="12" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">References!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">References!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$J$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Submodels!#REF!</definedName>
   </definedNames>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="137">
   <si>
     <t>ID</t>
   </si>
@@ -455,6 +455,12 @@
   </si>
   <si>
     <t>H2O[c]</t>
+  </si>
+  <si>
+    <t>Observables</t>
+  </si>
+  <si>
+    <t>Expression</t>
   </si>
 </sst>
 </file>
@@ -1083,6 +1089,244 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="37.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2000</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="15" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="17">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="17">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="17">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
@@ -1133,7 +1377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1204,7 +1448,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
@@ -1281,7 +1557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -1322,42 +1598,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1936,6 +2176,73 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
@@ -2077,242 +2384,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
-  <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="37.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2000</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="6">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" s="17">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="17">
-        <v>-4</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="17">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="17">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="1580" windowWidth="33340" windowHeight="15340" tabRatio="500" firstSheet="3" activeTab="13"/>
+    <workbookView xWindow="2000" yWindow="1580" windowWidth="33340" windowHeight="15340" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="140">
   <si>
     <t>ID</t>
   </si>
@@ -461,6 +461,15 @@
   </si>
   <si>
     <t>Expression</t>
+  </si>
+  <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Revision</t>
   </si>
 </sst>
 </file>
@@ -1036,9 +1045,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1046,7 +1057,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" t="s">
         <v>36</v>
       </c>
       <c r="B1" t="s">
@@ -1054,7 +1065,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -1062,23 +1073,38 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" t="s">
         <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>43</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1452,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="8"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,14 +34,19 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="144">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -259,9 +264,15 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_1[e]</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_2[e]</t>
   </si>
   <si>
@@ -280,6 +291,9 @@
     <t xml:space="preserve">H2O[e]</t>
   </si>
   <si>
+    <t xml:space="preserve">molecules</t>
+  </si>
+  <si>
     <t xml:space="preserve">H2O[c]</t>
   </si>
   <si>
@@ -413,9 +427,6 @@
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
   </si>
   <si>
     <t xml:space="preserve">fractionDryWeight</t>
@@ -772,7 +783,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -865,25 +876,25 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -894,24 +905,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -920,13 +931,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0003</v>
@@ -937,13 +948,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.0003</v>
@@ -954,13 +965,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.0003</v>
@@ -993,13 +1004,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="13" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="13" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="13" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="13" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="13" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="13" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="13" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -1014,10 +1025,10 @@
         <v>23</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F1" s="14" t="s">
         <v>13</v>
@@ -1028,10 +1039,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="13" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>29</v>
@@ -1043,16 +1054,16 @@
         <v>45</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="G2" s="15"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="13" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>29</v>
@@ -1066,10 +1077,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="13" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>29</v>
@@ -1083,10 +1094,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>29</v>
@@ -1122,8 +1133,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="13" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="13" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="13" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -1149,13 +1160,13 @@
         <v>29</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1182,12 +1193,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.7408906882591"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="48.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1202,13 +1213,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1219,10 +1230,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1231,10 +1242,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1288,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1308,9 +1319,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1325,46 +1336,46 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1401,10 +1412,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1413,22 +1424,22 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1527,13 +1538,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="8.78542510121457"/>
@@ -1636,9 +1647,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.4534412955466"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
@@ -1724,12 +1735,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="2" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="2" width="8.78542510121457"/>
   </cols>
@@ -1950,21 +1961,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="184" zoomScaleNormal="184" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="2" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1975,74 +1986,101 @@
         <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>0.000148</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>0.0002</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>0.001</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>0.002</v>
       </c>
+      <c r="C7" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2124,7 @@
         <v>66</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2130,7 +2168,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2154,16 +2192,16 @@
   </sheetPr>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2175,19 +2213,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
@@ -2198,16 +2236,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
@@ -2223,16 +2261,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>1</v>
@@ -2244,16 +2282,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>1</v>
@@ -2265,16 +2303,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-21140" yWindow="460" windowWidth="17040" windowHeight="10700" tabRatio="989" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="11840" tabRatio="989" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="148">
   <si>
     <t>Id</t>
   </si>
@@ -492,6 +492,21 @@
   </si>
   <si>
     <t>Reference</t>
+  </si>
+  <si>
+    <t>cond1</t>
+  </si>
+  <si>
+    <t>maxAllowed</t>
+  </si>
+  <si>
+    <t>Test param for testing stop cond1</t>
+  </si>
+  <si>
+    <t>2 &lt; maxAllowed</t>
+  </si>
+  <si>
+    <t>Will always be False</t>
   </si>
 </sst>
 </file>
@@ -502,7 +517,7 @@
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -535,6 +550,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -572,9 +595,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -619,8 +643,9 @@
     </xf>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1324,15 +1349,22 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -1379,6 +1411,20 @@
       </c>
       <c r="G2" s="2" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1390,13 +1436,19 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1404,13 +1456,21 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1985,7 +2045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,40 +13,46 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -58,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="150">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -255,6 +261,42 @@
     <t xml:space="preserve">metabolite</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -264,33 +306,9 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Observables</t>
   </si>
   <si>
@@ -384,9 +402,6 @@
     <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
     <t xml:space="preserve">biomass_id_001</t>
   </si>
   <si>
@@ -412,9 +427,6 @@
   </si>
   <si>
     <t xml:space="preserve">biomass_comp_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Metabolism biomass reaction</t>
@@ -514,7 +526,7 @@
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -554,6 +566,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -619,7 +639,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -661,6 +681,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -877,10 +909,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="9" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -890,19 +1057,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -913,24 +1080,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -939,13 +1106,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0003</v>
@@ -956,13 +1123,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.0003</v>
@@ -973,142 +1140,19 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.0003</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>0.001</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="13" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="16" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="G2" s="15"/>
-    </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="16" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1127,47 +1171,111 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="13" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="16" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="19" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="C4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D4" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="B5" s="16" t="s">
         <v>120</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1186,6 +1294,65 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="5" min="1" style="16" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1194,10 +1361,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.31983805668016"/>
@@ -1216,13 +1383,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1233,10 +1400,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1245,18 +1412,18 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1278,7 +1445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1292,8 +1459,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1305,7 +1472,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1313,13 +1480,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1333,7 +1500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1361,46 +1528,46 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1419,7 +1586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1437,10 +1604,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1449,22 +1616,22 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1724,7 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1733,7 +1900,7 @@
   </sheetPr>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1959,121 +2126,287 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="I32" activeCellId="0" sqref="I32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="5" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="11" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>0.000148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>0.0002</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>0.0005</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>0.0005</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>0.001</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>0.002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>76</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2087,7 +2420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2114,10 +2447,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2134,7 +2467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2161,7 +2494,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2176,139 +2509,4 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="9" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D5"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,40 +19,45 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -64,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="149">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -114,325 +119,322 @@
     <t xml:space="preserve">Test model for TestExecutableModel</t>
   </si>
   <si>
+    <t xml:space="preserve">Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism_biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O2Na3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3SO4C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H2O[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_id_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass_comp_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank not used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism_biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For testing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O2Na3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3SO4C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H2O[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_id_004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass_comp_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No comment</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -929,39 +931,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="104" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -976,16 +978,16 @@
     </row>
     <row r="3" customFormat="false" ht="52" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>1</v>
@@ -994,16 +996,16 @@
     </row>
     <row r="4" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>1</v>
@@ -1011,16 +1013,16 @@
     </row>
     <row r="5" customFormat="false" ht="78" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>0</v>
@@ -1057,47 +1059,47 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D3" s="5" t="n">
         <v>2000</v>
@@ -1106,13 +1108,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>105</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>108</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0.0003</v>
@@ -1123,13 +1125,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.0003</v>
@@ -1140,13 +1142,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.0003</v>
@@ -1171,111 +1173,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="7" min="1" style="16" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="16" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="19" t="n">
-        <v>-3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="19" t="n">
-        <v>-4</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>54</v>
+      <c r="D2" s="16" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1294,47 +1232,111 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="X1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="5" min="1" style="16" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="1" style="16" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
+      <c r="C1" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="D1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>27</v>
+      <c r="G1" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>122</v>
+        <v>113</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="19" t="n">
+        <v>-3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="G2" s="18"/>
+    </row>
+    <row r="3" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="19" t="n">
+        <v>-4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1361,10 +1363,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.4251012145749"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.1417004048583"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="11.6761133603239"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.31983805668016"/>
@@ -1380,30 +1382,30 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1412,18 +1414,18 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1453,14 +1455,14 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1472,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>13</v>
@@ -1480,13 +1482,13 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="0" t="s">
         <v>131</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1505,16 +1507,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="1:1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="18" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="19" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="17" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="18" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1525,7 +1527,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>133</v>
@@ -1537,10 +1539,10 @@
         <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>137</v>
@@ -1567,14 +1569,12 @@
         <v>144</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1604,34 +1604,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1650,10 +1650,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1682,12 +1682,12 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -1695,17 +1695,10 @@
     </row>
     <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1725,13 +1718,13 @@
   <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="8" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1742,60 +1735,47 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1814,16 +1794,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1834,54 +1814,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>4.58E-017</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>38</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:D3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1898,16 +1870,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="10" min="1" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="1" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1918,198 +1890,175 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="0"/>
+      <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0"/>
-      <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="0"/>
+      <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="0"/>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
+      <c r="E3" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="0"/>
+      <c r="D4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0"/>
-      <c r="E4" s="2" t="s">
-        <v>53</v>
+      <c r="E4" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="0"/>
+      <c r="D5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="0"/>
-      <c r="E5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="F5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="0"/>
+      <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="7" t="n">
+      <c r="E7" s="7" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="F7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>47</v>
+      <c r="G7" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="10" t="n">
+        <v>61</v>
+      </c>
+      <c r="E8" s="10" t="n">
         <v>18.0152</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J6"/>
+  <autoFilter ref="A1:I6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2128,7 +2077,7 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2138,8 +2087,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2150,126 +2099,126 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2306,107 +2255,107 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>79</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>0.000148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>0.0002</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="n">
         <v>0.0005</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="6" t="n">
         <v>0.0005</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="6" t="n">
         <v>0.001</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="6" t="n">
         <v>0.002</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2425,18 +2374,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2444,15 +2393,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2472,18 +2415,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2491,12 +2434,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="12"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="References" sheetId="16" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="203">
   <si>
     <t>Id</t>
   </si>
@@ -163,76 +163,97 @@
     <t>ssa</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>species_1</t>
@@ -645,12 +666,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -693,17 +714,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -716,6 +753,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -730,39 +774,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,7 +797,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,7 +812,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,29 +845,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -842,7 +863,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,13 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,7 +917,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,19 +941,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,7 +959,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,13 +971,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,37 +1001,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,19 +1031,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1004,25 +1043,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,18 +1070,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,11 +1114,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1104,32 +1144,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,132 +1166,132 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1310,7 +1331,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1319,7 +1340,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1883,22 +1904,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1915,16 +1936,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1936,22 +1957,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I2" s="11"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1960,16 +1981,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -1977,16 +1998,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -2036,19 +2057,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2065,22 +2086,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2088,22 +2109,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2111,22 +2132,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2134,22 +2155,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2158,22 +2179,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2221,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2244,16 +2265,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2267,7 +2288,7 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2293,13 +2314,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2316,22 +2337,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2374,16 +2395,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
@@ -2400,85 +2421,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E2" s="9">
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E3" s="9">
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="E5" s="9">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2523,16 +2544,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2549,123 +2570,123 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D5" s="6">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="D8" s="6">
         <v>0.0003</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D9" s="6">
         <v>0.001</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2708,10 +2729,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2728,16 +2749,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2773,28 +2794,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2843,46 +2864,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3051,35 +3072,35 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMM3"/>
+  <dimension ref="A1:AMP3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G$1:G$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="5" width="8.78333333333333" style="2"/>
-    <col min="6" max="6" width="8.78333333333333" style="16"/>
-    <col min="7" max="7" width="9.375" style="16"/>
-    <col min="8" max="12" width="8.78333333333333" style="16"/>
-    <col min="13" max="13" width="8.875" style="16" customWidth="1"/>
-    <col min="14" max="1028" width="8.78333333333333" style="16"/>
-    <col min="1029" max="16384" width="9" style="16"/>
+    <col min="1" max="8" width="8.78333333333333" style="2"/>
+    <col min="9" max="9" width="8.78333333333333" style="16"/>
+    <col min="10" max="10" width="9.375" style="16"/>
+    <col min="11" max="15" width="8.78333333333333" style="16"/>
+    <col min="16" max="16" width="8.875" style="16" customWidth="1"/>
+    <col min="17" max="1031" width="8.78333333333333" style="16"/>
+    <col min="1032" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1027">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1030">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -3104,91 +3125,115 @@
         <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMM1" s="16"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:13">
+      <c r="AMP1" s="16"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="6">
+        <v>52</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="6">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="2">
+      <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>52</v>
+      <c r="K3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3">
+  <autoFilter ref="A1:G3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3226,19 +3271,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3255,13 +3300,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3270,19 +3315,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3291,19 +3336,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3312,19 +3357,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3333,19 +3378,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3354,19 +3399,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3375,18 +3420,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2">
         <v>18.0152</v>
@@ -3395,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3436,13 +3481,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3459,142 +3504,142 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3639,19 +3684,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3668,138 +3713,138 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E2" s="14">
         <v>0.000148</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E3" s="14">
         <v>0.0002</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E4" s="14">
         <v>0.0005</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E5" s="14">
         <v>0.0005</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6" s="14">
         <v>0.001</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E7" s="14">
         <v>0.002</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3836,10 +3881,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3888,10 +3933,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="205">
   <si>
     <t>Id</t>
   </si>
@@ -418,7 +418,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>reaction_1</t>
@@ -506,6 +506,12 @@
   </si>
   <si>
     <t>k_cat_4_for * species_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>dfba-obj-submodel_1</t>
@@ -667,11 +673,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -708,9 +714,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -721,85 +750,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -818,11 +772,71 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -833,16 +847,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -863,19 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,13 +887,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,31 +995,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,103 +1037,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,36 +1090,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1144,6 +1120,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1163,138 +1154,153 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1882,7 +1888,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -2216,14 +2222,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2234,7 +2240,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2251,30 +2257,42 @@
         <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2320,7 +2338,7 @@
         <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2337,10 +2355,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -2352,7 +2370,7 @@
         <v>56</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2395,13 +2413,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>103</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>91</v>
@@ -2421,13 +2439,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>101</v>
@@ -2439,18 +2457,18 @@
         <v>126</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>95</v>
@@ -2464,13 +2482,13 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>102</v>
@@ -2484,13 +2502,13 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>96</v>
@@ -2547,10 +2565,10 @@
         <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>91</v>
@@ -2570,10 +2588,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>140</v>
@@ -2582,18 +2600,18 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>140</v>
@@ -2602,43 +2620,43 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="D5" s="6">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
@@ -2649,38 +2667,38 @@
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D8" s="6">
         <v>0.0003</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D9" s="6">
         <v>0.001</v>
@@ -2749,16 +2767,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -2794,7 +2812,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>91</v>
@@ -2803,19 +2821,19 @@
         <v>67</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2864,46 +2882,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>41</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3074,7 +3092,7 @@
   <sheetPr/>
   <dimension ref="A1:AMP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="212">
   <si>
     <t>Id</t>
   </si>
@@ -175,481 +175,502 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>species_1</t>
+  </si>
+  <si>
+    <t>species_name_1</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>species_2</t>
+  </si>
+  <si>
+    <t>species_name_2</t>
+  </si>
+  <si>
+    <t>NONa2</t>
+  </si>
+  <si>
+    <t>species_3</t>
+  </si>
+  <si>
+    <t>species_name_3</t>
+  </si>
+  <si>
+    <t>N2O2Na4</t>
+  </si>
+  <si>
+    <t>species_4</t>
+  </si>
+  <si>
+    <t>species_name_4</t>
+  </si>
+  <si>
+    <t>N5O5Na10</t>
+  </si>
+  <si>
+    <t>species_5</t>
+  </si>
+  <si>
+    <t>species_name_5</t>
+  </si>
+  <si>
+    <t>Na5</t>
+  </si>
+  <si>
+    <t>species_6</t>
+  </si>
+  <si>
+    <t>species_name_6</t>
+  </si>
+  <si>
+    <t>N5O5</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>species_1[e]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>species_2[e]</t>
+  </si>
+  <si>
+    <t>species_2[c]</t>
+  </si>
+  <si>
+    <t>species_4[c]</t>
+  </si>
+  <si>
+    <t>species_5[c]</t>
+  </si>
+  <si>
+    <t>species_6[c]</t>
+  </si>
+  <si>
+    <t>H2O[e]</t>
+  </si>
+  <si>
+    <t>H2O[c]</t>
+  </si>
+  <si>
+    <t>species_1[c]</t>
+  </si>
+  <si>
+    <t>species_3[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-species_1[e]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-species_2[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-species_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-species_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-species_5[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-species_6[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-H2O[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-H2O[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>species_1[e] + species_2[e] ==&gt; species_1[c] + species_2[c]</t>
+  </si>
+  <si>
+    <t>M s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[c]: (2) species_2 ==&gt; species_3</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: species_2 + (2) species_3 ==&gt; species_4</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[c]: species_4 ==&gt; (2) species_5 + species_6</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_1_for * max( species_1[e], species_2[e] )</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2_for * species_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3_for * species_4[c] / (K_m_3 * Avogadro * volume_c + species_4[c])</t>
+  </si>
+  <si>
+    <t>reaction_3-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev * (species_5[c] + species_6[c])</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4_for * species_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>dfba-obj-submodel_1</t>
+  </si>
+  <si>
+    <t>Metabolism_biomass</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>Metabolism biomass reaction</t>
+  </si>
+  <si>
+    <t>No comment</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-species_1[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_1</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-species_2[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_2</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-species_3[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_3</t>
+  </si>
+  <si>
+    <t>dfba-net-species-Metabolism_biomass-species_4[c]</t>
+  </si>
+  <si>
+    <t>biomass_comp_4</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t>[Ref-0006]</t>
+  </si>
+  <si>
+    <t>maxAllowed</t>
+  </si>
+  <si>
+    <t>Test param for testing stop cond1</t>
+  </si>
+  <si>
+    <t>k_cat_1_for</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_2_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev</t>
+  </si>
+  <si>
+    <t>k_cat_4_for</t>
+  </si>
+  <si>
+    <t>K_m_3</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>cond1</t>
+  </si>
+  <si>
+    <t>2 &lt; maxAllowed</t>
+  </si>
+  <si>
+    <t>Will always be False</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1E9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>species_1</t>
-  </si>
-  <si>
-    <t>species_name_1</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>species_2</t>
-  </si>
-  <si>
-    <t>species_name_2</t>
-  </si>
-  <si>
-    <t>NONa2</t>
-  </si>
-  <si>
-    <t>species_3</t>
-  </si>
-  <si>
-    <t>species_name_3</t>
-  </si>
-  <si>
-    <t>N2O2Na4</t>
-  </si>
-  <si>
-    <t>species_4</t>
-  </si>
-  <si>
-    <t>species_name_4</t>
-  </si>
-  <si>
-    <t>N5O5Na10</t>
-  </si>
-  <si>
-    <t>species_5</t>
-  </si>
-  <si>
-    <t>species_name_5</t>
-  </si>
-  <si>
-    <t>Na5</t>
-  </si>
-  <si>
-    <t>species_6</t>
-  </si>
-  <si>
-    <t>species_name_6</t>
-  </si>
-  <si>
-    <t>N5O5</t>
-  </si>
-  <si>
-    <t>H2O</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>species_1[e]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>species_2[e]</t>
-  </si>
-  <si>
-    <t>species_2[c]</t>
-  </si>
-  <si>
-    <t>species_4[c]</t>
-  </si>
-  <si>
-    <t>species_5[c]</t>
-  </si>
-  <si>
-    <t>species_6[c]</t>
-  </si>
-  <si>
-    <t>H2O[e]</t>
-  </si>
-  <si>
-    <t>H2O[c]</t>
-  </si>
-  <si>
-    <t>species_1[c]</t>
-  </si>
-  <si>
-    <t>species_3[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-species_1[e]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-species_2[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-species_2[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-species_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-species_5[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-species_6[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-H2O[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-H2O[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>species_1[e] + species_2[e] ==&gt; species_1[c] + species_2[c]</t>
-  </si>
-  <si>
-    <t>M s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[c]: (2) species_2 ==&gt; species_3</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>[c]: species_2 + (2) species_3 ==&gt; species_4</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>[c]: species_4 ==&gt; (2) species_5 + species_6</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_1_for * max( species_1[e], species_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2_for * species_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_3_for * species_4[c] / (K_m_3 + species_4[c])</t>
-  </si>
-  <si>
-    <t>reaction_3-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev * (species_5[c] + species_6[c])</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4_for * species_2[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>dfba-obj-submodel_1</t>
-  </si>
-  <si>
-    <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>Metabolism biomass reaction</t>
-  </si>
-  <si>
-    <t>No comment</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-species_1[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_1</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-species_2[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_2</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-species_3[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_3</t>
-  </si>
-  <si>
-    <t>dfba-net-species-Metabolism_biomass-species_4[c]</t>
-  </si>
-  <si>
-    <t>biomass_comp_4</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t>[Ref-0006]</t>
-  </si>
-  <si>
-    <t>maxAllowed</t>
-  </si>
-  <si>
-    <t>Test param for testing stop cond1</t>
-  </si>
-  <si>
-    <t>k_cat_1_for</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_2_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev</t>
-  </si>
-  <si>
-    <t>k_cat_4_for</t>
-  </si>
-  <si>
-    <t>K_m_3</t>
-  </si>
-  <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>cond1</t>
-  </si>
-  <si>
-    <t>2 &lt; maxAllowed</t>
-  </si>
-  <si>
-    <t>Will always be False</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -674,9 +695,9 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -714,6 +735,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -730,20 +770,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,6 +800,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -772,8 +815,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,68 +867,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,7 +890,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,43 +932,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,31 +986,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,7 +1010,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,73 +1070,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,11 +1102,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1120,17 +1147,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1142,15 +1172,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1172,140 +1193,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1339,6 +1360,9 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1822,25 +1846,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13"/>
+      <c r="B8" s="14"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="14"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="14" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1848,25 +1872,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13"/>
+      <c r="B13" s="14"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="13"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1910,22 +1934,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1942,16 +1966,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
@@ -1963,22 +1987,22 @@
         <v>1</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I2" s="11"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -1987,16 +2011,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -2004,16 +2028,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -2039,7 +2063,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2048,7 +2072,7 @@
     <col min="2" max="3" width="8.78333333333333" style="2"/>
     <col min="4" max="4" width="9.75" style="2"/>
     <col min="5" max="5" width="9.125" style="2"/>
-    <col min="6" max="6" width="43.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="62.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.78333333333333" style="2"/>
     <col min="8" max="9" width="9.25" style="2"/>
     <col min="10" max="1025" width="8.78333333333333" style="2"/>
@@ -2063,19 +2087,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2092,22 +2116,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2115,22 +2139,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2138,22 +2162,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2161,22 +2185,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2185,22 +2209,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2224,7 +2248,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2248,19 +2272,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2277,19 +2301,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2332,13 +2356,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2355,22 +2379,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2413,16 +2437,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
@@ -2439,85 +2463,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E2" s="9">
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E3" s="9">
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E5" s="9">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2530,14 +2554,14 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2562,16 +2586,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2588,123 +2612,165 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D5" s="6">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D8" s="6">
         <v>0.0003</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D9" s="6">
         <v>0.001</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>93</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="6">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2747,10 +2813,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2767,16 +2833,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -2812,28 +2878,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2882,46 +2948,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3064,7 +3130,7 @@
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="19"/>
       <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
@@ -3090,29 +3156,29 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMP3"/>
+  <dimension ref="A1:AMO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="8" width="8.78333333333333" style="2"/>
-    <col min="9" max="9" width="8.78333333333333" style="16"/>
-    <col min="10" max="10" width="9.375" style="16"/>
-    <col min="11" max="15" width="8.78333333333333" style="16"/>
-    <col min="16" max="16" width="8.875" style="16" customWidth="1"/>
-    <col min="17" max="1031" width="8.78333333333333" style="16"/>
-    <col min="1032" max="16384" width="9" style="16"/>
+    <col min="9" max="9" width="8.78333333333333" style="17"/>
+    <col min="10" max="10" width="9.375" style="17"/>
+    <col min="11" max="14" width="8.78333333333333" style="17"/>
+    <col min="15" max="15" width="8.875" style="17" customWidth="1"/>
+    <col min="16" max="1030" width="8.78333333333333" style="17"/>
+    <col min="1031" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1030">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1029">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3149,46 +3215,43 @@
         <v>46</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMO1" s="17"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AMP1" s="16"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -3197,39 +3260,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="M2" s="2" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3238,16 +3298,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3289,19 +3346,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3318,13 +3375,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3332,20 +3389,20 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="14"/>
+      <c r="G2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>74</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3353,20 +3410,20 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H3" s="14"/>
+      <c r="G3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3374,20 +3431,20 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3395,20 +3452,20 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" s="14"/>
+      <c r="G5" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>83</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3416,20 +3473,20 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H6" s="14"/>
+      <c r="G6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3437,19 +3494,19 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>71</v>
+      <c r="G7" s="15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2">
         <v>18.0152</v>
@@ -3458,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3499,13 +3556,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3522,142 +3579,142 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3691,7 +3748,7 @@
     <col min="4" max="4" width="8.78333333333333" style="2"/>
     <col min="5" max="5" width="9.75" style="2"/>
     <col min="6" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="12"/>
+    <col min="1026" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -3702,19 +3759,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>106</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3731,138 +3788,138 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="15">
+        <v>0.000148</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0.000148</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="14">
+        <v>93</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="15">
         <v>0.0002</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>108</v>
+      <c r="G3" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="14">
+        <v>94</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="15">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>108</v>
+      <c r="G4" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="14">
+        <v>95</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="15">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>108</v>
+      <c r="G5" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="14">
+        <v>96</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="15">
         <v>0.001</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>108</v>
+      <c r="G6" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="14">
+        <v>97</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="15">
         <v>0.002</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>108</v>
+      <c r="G7" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>55</v>
+        <v>98</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>108</v>
+      <c r="G8" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>55</v>
+        <v>99</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>108</v>
+      <c r="G9" s="15" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3899,10 +3956,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3927,17 +3984,17 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1025" width="8.78333333333333" style="2"/>
     <col min="1026" max="16384" width="9" style="2"/>
@@ -3951,10 +4008,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -3967,6 +4024,30 @@
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$12</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="213">
   <si>
     <t>Id</t>
   </si>
@@ -421,6 +421,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -439,6 +442,9 @@
     <t>species_1[e] + species_2[e] ==&gt; species_1[c] + species_2[c]</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>M s^-1</t>
   </si>
   <si>
@@ -485,9 +491,6 @@
   </si>
   <si>
     <t>k_cat_1_for * max( species_1[e], species_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>reaction_2-forward</t>
@@ -696,9 +699,9 @@
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -741,13 +744,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -755,10 +751,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -779,17 +775,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -800,16 +809,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -820,6 +822,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -839,19 +848,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -861,15 +872,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,7 +893,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -908,169 +1073,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,11 +1096,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1132,6 +1150,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1146,179 +1193,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1905,14 +1908,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -1921,12 +1924,12 @@
     <col min="2" max="2" width="14.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="50.75" style="2" customWidth="1"/>
-    <col min="5" max="9" width="8.78333333333333" style="2"/>
-    <col min="10" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="5" max="10" width="8.78333333333333" style="2"/>
+    <col min="11" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1952,95 +1955,110 @@
         <v>125</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>1</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
+      <c r="I2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="11"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2087,10 +2105,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>66</v>
@@ -2116,22 +2134,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2139,22 +2157,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2162,22 +2180,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2185,22 +2203,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2209,22 +2227,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2281,10 +2299,10 @@
         <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2301,19 +2319,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2362,7 +2380,7 @@
         <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2379,22 +2397,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>55</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2437,13 +2455,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>102</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>90</v>
@@ -2463,13 +2481,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>100</v>
@@ -2478,21 +2496,21 @@
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>94</v>
@@ -2501,18 +2519,18 @@
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>101</v>
@@ -2521,18 +2539,18 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>95</v>
@@ -2541,7 +2559,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2556,7 +2574,7 @@
   <sheetPr/>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2589,10 +2607,10 @@
         <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>90</v>
@@ -2612,117 +2630,117 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D5" s="6">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D8" s="6">
         <v>0.0003</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D9" s="6">
         <v>0.001</v>
@@ -2733,16 +2751,16 @@
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D10" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
@@ -2750,13 +2768,13 @@
         <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D11" s="2">
         <v>1100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
@@ -2764,17 +2782,17 @@
         <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D12" s="2">
         <v>1000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F9">
+  <autoFilter ref="A1:F12">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2833,16 +2851,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2878,7 +2896,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>90</v>
@@ -2887,19 +2905,19 @@
         <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2948,46 +2966,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -697,11 +697,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -744,7 +744,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -766,15 +766,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -782,58 +775,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -848,14 +797,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -877,6 +826,57 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -893,13 +893,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,7 +935,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -929,13 +1025,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,25 +1049,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,103 +1067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,6 +1115,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -1131,6 +1140,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1164,164 +1188,140 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1910,7 +1910,7 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3176,12 +3176,12 @@
   <sheetPr/>
   <dimension ref="A1:AMO3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3309,11 +3309,11 @@
       <c r="H3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
+      <c r="I3" s="6">
+        <v>1e-12</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1e-13</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>55</v>
@@ -3755,7 +3755,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,52 +5,53 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="217">
   <si>
     <t>Id</t>
   </si>
@@ -118,7 +119,7 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>ASP_test</t>
+    <t>taxon</t>
   </si>
   <si>
     <t>Test model for TestExecutableModel</t>
@@ -136,6 +137,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -647,9 +663,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -697,11 +710,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -744,37 +757,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -782,22 +764,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -819,9 +786,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,23 +800,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -864,7 +831,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,6 +842,52 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -893,37 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,7 +924,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,13 +954,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -971,7 +978,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,19 +1014,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1007,13 +1068,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,55 +1080,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,30 +1106,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1145,6 +1134,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1155,21 +1159,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,135 +1182,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1329,7 +1342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1386,6 +1399,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1908,6 +1924,82 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1937,31 +2029,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -1972,22 +2064,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -1996,69 +2088,69 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J2" s="11"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J3" s="11"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L7"/>
@@ -2105,25 +2197,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2134,22 +2226,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2157,22 +2249,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2180,22 +2272,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2203,22 +2295,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2227,22 +2319,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2261,7 +2353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -2290,25 +2382,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2319,19 +2411,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2343,7 +2435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I2"/>
@@ -2374,19 +2466,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2397,22 +2489,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2422,7 +2514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J5"/>
@@ -2455,22 +2547,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>19</v>
@@ -2481,85 +2573,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E2" s="9">
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E3" s="9">
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E5" s="9">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2569,7 +2661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J12"/>
@@ -2604,22 +2696,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2630,165 +2722,165 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D5" s="6">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D8" s="6">
         <v>0.0003</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D9" s="6">
         <v>0.001</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D10" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D11" s="2">
         <v>1100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D12" s="2">
         <v>1000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2801,7 +2893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H2"/>
@@ -2831,16 +2923,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2851,16 +2943,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2870,7 +2962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2896,34 +2988,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>199</v>
+        <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -2938,7 +3030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -2966,46 +3058,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3030,10 +3122,10 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="A1"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -3092,6 +3184,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="2"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="20"/>
+    <col min="1020" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ3"/>
@@ -3120,13 +3290,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3140,28 +3310,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D2" s="19"/>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -3171,12 +3341,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMO3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3203,40 +3373,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3248,28 +3418,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -3278,36 +3448,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I3" s="6">
         <v>1e-12</v>
@@ -3316,13 +3486,13 @@
         <v>1e-13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3335,7 +3505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K8"/>
@@ -3364,25 +3534,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3393,13 +3563,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3408,19 +3578,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3429,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3450,19 +3620,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H4" s="15"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3471,19 +3641,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3492,19 +3662,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3513,18 +3683,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2">
         <v>18.0152</v>
@@ -3533,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3546,7 +3716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I11"/>
@@ -3574,19 +3744,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3597,142 +3767,142 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3745,7 +3915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K9"/>
@@ -3777,25 +3947,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3806,138 +3976,138 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E2" s="15">
         <v>0.000148</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E3" s="15">
         <v>0.0002</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E4" s="15">
         <v>0.0005</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E5" s="15">
         <v>0.0005</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E6" s="15">
         <v>0.001</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E7" s="15">
         <v>0.002</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3947,7 +4117,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -3974,98 +4144,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -560,7 +560,7 @@
     <t>No comment</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -709,12 +709,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -743,21 +743,36 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,17 +785,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,8 +806,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,78 +884,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -906,6 +906,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -918,19 +924,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -942,19 +942,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,61 +1038,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,19 +1062,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,25 +1080,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,15 +1109,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1129,6 +1120,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,16 +1148,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1177,8 +1177,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,22 +1186,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1212,133 +1212,133 @@
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,7 +1374,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1386,7 +1386,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2519,12 +2519,12 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -3122,7 +3122,7 @@
   <sheetPr/>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="B2" sqref="B2"/>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" firstSheet="1" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="218">
   <si>
     <t>Id</t>
   </si>
@@ -152,6 +152,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -546,9 +552,6 @@
   </si>
   <si>
     <t>Metabolism_biomass</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -711,10 +714,10 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -749,8 +752,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,38 +782,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -807,8 +797,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -829,24 +827,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,34 +879,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -906,7 +909,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,25 +927,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -948,7 +939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +963,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,103 +1077,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1109,21 +1112,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1148,6 +1136,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1165,180 +1203,145 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1948,16 +1951,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -1968,26 +1971,26 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2029,31 +2032,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -2064,22 +2067,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2088,69 +2091,69 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J2" s="11"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="J3" s="11"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2197,25 +2200,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2226,22 +2229,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2249,22 +2252,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2272,22 +2275,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2295,22 +2298,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2319,22 +2322,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2382,25 +2385,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2411,19 +2414,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2466,19 +2469,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2489,22 +2492,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2519,7 +2522,7 @@
   <sheetPr/>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2547,22 +2550,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>19</v>
@@ -2573,85 +2576,85 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E2" s="9">
         <v>-3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E3" s="9">
         <v>-4</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E4" s="9">
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E5" s="9">
         <v>2</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2696,22 +2699,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2722,165 +2725,165 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D5" s="6">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D6" s="6">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D7" s="6">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D8" s="6">
         <v>0.0003</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D9" s="6">
         <v>0.001</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D10" s="6">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D11" s="2">
         <v>1100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D12" s="2">
         <v>1000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2923,16 +2926,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2943,16 +2946,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2988,34 +2991,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -3058,46 +3061,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3186,15 +3189,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G6" sqref="G6"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
@@ -3240,18 +3243,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3290,13 +3301,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3310,28 +3321,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D2" s="19"/>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3373,40 +3384,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3418,28 +3429,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="6">
         <v>4.58e-17</v>
@@ -3448,36 +3459,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" s="6">
         <v>1e-12</v>
@@ -3486,13 +3497,13 @@
         <v>1e-13</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3534,25 +3545,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3563,13 +3574,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3578,19 +3589,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3599,19 +3610,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3620,19 +3631,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H4" s="15"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3641,19 +3652,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3662,19 +3673,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3683,18 +3694,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2">
         <v>18.0152</v>
@@ -3703,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3744,19 +3755,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3767,142 +3778,142 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3947,25 +3958,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3976,138 +3987,138 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E2" s="15">
         <v>0.000148</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E3" s="15">
         <v>0.0002</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E4" s="15">
         <v>0.0005</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E5" s="15">
         <v>0.0005</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="15">
         <v>0.001</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E7" s="15">
         <v>0.002</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4144,16 +4155,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,15 @@
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
@@ -43,15 +44,15 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="224">
   <si>
     <t>Id</t>
   </si>
@@ -164,6 +165,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>submodel_1</t>
   </si>
   <si>
@@ -665,10 +669,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -713,11 +732,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -746,29 +765,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -782,17 +781,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -805,25 +817,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -835,37 +846,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,8 +870,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -909,7 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,7 +946,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,25 +976,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -963,13 +994,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,13 +1030,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,7 +1060,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,55 +1078,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,19 +1108,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1137,32 +1156,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1177,11 +1170,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,149 +1202,169 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1360,6 +1379,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1868,25 +1890,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="15"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1894,25 +1916,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="14"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1927,23 +1949,23 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D3"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1951,10 +1973,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -1963,34 +1985,37 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>62</v>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>62</v>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2003,14 +2028,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F5"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
@@ -2020,11 +2045,11 @@
     <col min="3" max="3" width="10.5" style="2" customWidth="1"/>
     <col min="4" max="4" width="50.75" style="2" customWidth="1"/>
     <col min="5" max="10" width="8.78333333333333" style="2"/>
-    <col min="11" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="11" max="1027" width="8.78333333333333" style="3"/>
+    <col min="1028" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2032,25 +2057,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
@@ -2059,30 +2084,33 @@
         <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -2091,69 +2119,69 @@
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="11"/>
+        <v>139</v>
+      </c>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="J3" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>147</v>
+        <v>42</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>148</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2169,14 +2197,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2187,12 +2215,12 @@
     <col min="5" max="5" width="9.125" style="2"/>
     <col min="6" max="6" width="62.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="8.78333333333333" style="2"/>
-    <col min="8" max="9" width="9.25" style="2"/>
-    <col min="10" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="8" max="10" width="9.25" style="2"/>
+    <col min="11" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2200,19 +2228,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2221,133 +2249,142 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
+      <c r="K2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:10">
+      <c r="K3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:12">
+      <c r="K4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="L5" s="6"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:12">
+      <c r="K5"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="L6" s="6"/>
-    </row>
-    <row r="7" customHeight="1" spans="8:10">
+      <c r="K6"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" customHeight="1" spans="8:11">
       <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
+      <c r="K7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2359,14 +2396,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2377,7 +2414,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2385,19 +2422,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2406,27 +2443,30 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>166</v>
+        <v>38</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2441,27 +2481,27 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="7" customWidth="1"/>
-    <col min="2" max="2" width="8.78333333333333" style="7"/>
-    <col min="3" max="3" width="10.5" style="7" customWidth="1"/>
-    <col min="4" max="5" width="8.78333333333333" style="7"/>
-    <col min="6" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="17.75" style="8" customWidth="1"/>
+    <col min="2" max="2" width="8.78333333333333" style="8"/>
+    <col min="3" max="3" width="10.5" style="8" customWidth="1"/>
+    <col min="4" max="5" width="8.78333333333333" style="8"/>
+    <col min="6" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2469,13 +2509,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2484,30 +2524,33 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>168</v>
+    <row r="2" customHeight="1" spans="1:9">
+      <c r="A2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>169</v>
+        <v>138</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2520,141 +2563,144 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="43" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15" style="7" customWidth="1"/>
-    <col min="3" max="3" width="17.75" style="7" customWidth="1"/>
-    <col min="4" max="4" width="11" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="7" customWidth="1"/>
-    <col min="6" max="7" width="8.78333333333333" style="7"/>
-    <col min="8" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="43" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15" style="8" customWidth="1"/>
+    <col min="3" max="3" width="17.75" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11" style="8" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="8" customWidth="1"/>
+    <col min="6" max="7" width="8.78333333333333" style="8"/>
+    <col min="8" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="2" customHeight="1" spans="1:10">
+      <c r="A2" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>166</v>
+      <c r="B2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E2" s="9">
+        <v>108</v>
+      </c>
+      <c r="E2" s="10">
         <v>-3</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>174</v>
+      <c r="F2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>166</v>
+      <c r="B3" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="9">
+        <v>102</v>
+      </c>
+      <c r="E3" s="10">
         <v>-4</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>138</v>
+      <c r="F3" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>166</v>
+      <c r="B4" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>167</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" s="9">
+        <v>109</v>
+      </c>
+      <c r="E4" s="10">
         <v>1</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>138</v>
+      <c r="F4" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="B5" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="10">
         <v>2</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>138</v>
+      <c r="F5" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2667,14 +2713,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:A12"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2686,12 +2732,12 @@
     <col min="5" max="5" width="8.14166666666667" style="2"/>
     <col min="6" max="6" width="11.675" style="2"/>
     <col min="7" max="7" width="9.31666666666667" style="2"/>
-    <col min="8" max="8" width="9.425" style="2"/>
-    <col min="9" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="8" max="9" width="9.425" style="2"/>
+    <col min="10" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2699,16 +2745,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2717,21 +2763,24 @@
         <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
@@ -2739,19 +2788,19 @@
       <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>184</v>
+      <c r="J2" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -2762,128 +2811,128 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D5" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="6">
+        <v>189</v>
+      </c>
+      <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="6">
+        <v>189</v>
+      </c>
+      <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="6">
+        <v>189</v>
+      </c>
+      <c r="D8" s="7">
         <v>0.0003</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="D9" s="6">
+        <v>196</v>
+      </c>
+      <c r="D9" s="7">
         <v>0.001</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="6">
+        <v>153</v>
+      </c>
+      <c r="D10" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D11" s="2">
         <v>1100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D12" s="2">
         <v>1000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -2899,26 +2948,26 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="2" width="8.78333333333333" style="2"/>
     <col min="3" max="3" width="13.3916666666667" style="2"/>
     <col min="4" max="4" width="16.0666666666667" style="2"/>
-    <col min="5" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="5" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2926,10 +2975,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2938,24 +2987,27 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:7">
+    <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>201</v>
+      <c r="H2" s="2" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2968,14 +3020,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2983,7 +3035,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2991,16 +3043,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>97</v>
+        <v>182</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>202</v>
+        <v>74</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>203</v>
@@ -3009,21 +3061,45 @@
         <v>204</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3036,87 +3112,98 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="17" width="8.78333333333333" style="2"/>
-    <col min="18" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="2"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="J1" s="4" t="s">
+      <c r="C1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="AMJ1" s="3"/>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1">
-    <extLst/>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3186,12 +3273,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AMJ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="17" width="8.78333333333333" style="2"/>
+    <col min="18" max="1025" width="8.78333333333333" style="3"/>
+    <col min="1026" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1">
+    <extLst/>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D9" sqref="D9"/>
@@ -3202,8 +3376,8 @@
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="2"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="20"/>
-    <col min="1020" max="16384" width="9" style="20"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="21"/>
+    <col min="1020" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3275,25 +3449,25 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
-    <col min="2" max="6" width="8.78333333333333" style="2"/>
-    <col min="7" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="2" max="7" width="8.78333333333333" style="2"/>
+    <col min="8" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3310,39 +3484,42 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMH1" s="3"/>
       <c r="AMI1" s="3"/>
       <c r="AMJ1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
+      <c r="AMK1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="F2" s="2" t="s">
         <v>40</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3355,63 +3532,63 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMO3"/>
+  <dimension ref="A1:AMP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="8" width="8.78333333333333" style="2"/>
-    <col min="9" max="9" width="8.78333333333333" style="17"/>
-    <col min="10" max="10" width="9.375" style="17"/>
-    <col min="11" max="14" width="8.78333333333333" style="17"/>
-    <col min="15" max="15" width="8.875" style="17" customWidth="1"/>
-    <col min="16" max="1030" width="8.78333333333333" style="17"/>
-    <col min="1031" max="16384" width="9" style="17"/>
+    <col min="9" max="9" width="8.78333333333333" style="18"/>
+    <col min="10" max="10" width="9.375" style="18"/>
+    <col min="11" max="15" width="8.78333333333333" style="18"/>
+    <col min="16" max="16" width="8.875" style="18" customWidth="1"/>
+    <col min="17" max="1031" width="8.78333333333333" style="18"/>
+    <col min="1032" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1029">
-      <c r="A1" s="18" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1030">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
@@ -3420,90 +3597,93 @@
         <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMO1" s="17"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:15">
+      <c r="AMP1" s="18"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="6">
+        <v>62</v>
+      </c>
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="I3" s="7">
+        <v>1e-12</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1e-13</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1e-12</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1e-13</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="O3" s="2" t="s">
         <v>68</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3519,25 +3699,25 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="3" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:11">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3545,19 +3725,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3566,21 +3746,24 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3588,20 +3771,20 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="15"/>
+      <c r="G2" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="16" t="s">
         <v>80</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>81</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3609,20 +3792,20 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H3" s="15"/>
+      <c r="G3" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="16" t="s">
         <v>83</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>84</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3630,20 +3813,20 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="15"/>
+      <c r="G4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="16"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="16" t="s">
         <v>86</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>87</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3651,20 +3834,20 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="15"/>
+      <c r="G5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="16" t="s">
         <v>89</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>90</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3672,20 +3855,20 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="15"/>
+      <c r="G6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="16"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D7" s="16" t="s">
         <v>92</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3693,19 +3876,19 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>77</v>
+      <c r="G7" s="16" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E8" s="2">
         <v>18.0152</v>
@@ -3714,7 +3897,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3730,24 +3913,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="15.5333333333333" style="2"/>
-    <col min="7" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="7" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3755,13 +3938,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3770,150 +3953,153 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3929,14 +4115,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3946,11 +4132,11 @@
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
     <col min="4" max="4" width="8.78333333333333" style="2"/>
     <col min="5" max="5" width="9.75" style="2"/>
-    <col min="6" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="13"/>
+    <col min="6" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3958,19 +4144,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3979,146 +4165,149 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="15">
+        <v>99</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="16">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="15" t="s">
-        <v>114</v>
+      <c r="G2" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="16">
+        <v>0.0002</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="15">
-        <v>0.0002</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="15">
+        <v>102</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="16">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>114</v>
+      <c r="G4" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="15">
+        <v>103</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="16">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="15" t="s">
-        <v>114</v>
+      <c r="G5" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="15">
+        <v>104</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="16">
         <v>0.001</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>114</v>
+      <c r="G6" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="15">
+        <v>105</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="16">
         <v>0.002</v>
       </c>
-      <c r="G7" s="15" t="s">
-        <v>114</v>
+      <c r="G7" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>61</v>
+        <v>106</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="15" t="s">
-        <v>114</v>
+      <c r="G8" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>61</v>
+        <v>107</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="15" t="s">
-        <v>114</v>
+      <c r="G9" s="16" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4131,23 +4320,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4155,10 +4344,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -4166,10 +4355,13 @@
       <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="223">
   <si>
     <t>Id</t>
   </si>
@@ -159,7 +159,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -174,7 +174,7 @@
     <t>Metabolism</t>
   </si>
   <si>
-    <t>dfba</t>
+    <t>dynamic_flux_balance_analysis</t>
   </si>
   <si>
     <t>For testing</t>
@@ -186,7 +186,7 @@
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -225,13 +225,13 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -240,7 +240,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -255,7 +255,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -511,9 +511,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_1_for * max( species_1[e], species_2[e] )</t>
@@ -731,12 +728,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -765,26 +762,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -800,19 +781,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,8 +805,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -838,9 +864,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -856,6 +888,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -864,50 +904,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -928,7 +925,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,13 +997,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,7 +1057,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -970,85 +1093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,55 +1105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,11 +1128,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1155,17 +1176,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,157 +1225,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1399,7 +1396,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1408,26 +1405,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1890,25 +1887,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="21" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1916,25 +1913,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="21"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="21"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="21"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2204,7 +2201,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2268,11 +2265,9 @@
       <c r="D2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>138</v>
@@ -2284,7 +2279,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>140</v>
@@ -2292,11 +2287,9 @@
       <c r="D3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>138</v>
@@ -2308,7 +2301,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>143</v>
@@ -2316,11 +2309,9 @@
       <c r="D4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>138</v>
@@ -2332,19 +2323,17 @@
     </row>
     <row r="5" customHeight="1" spans="1:13">
       <c r="A5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>143</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>138</v>
@@ -2357,7 +2346,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>146</v>
@@ -2365,11 +2354,9 @@
       <c r="D6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>138</v>
@@ -2431,10 +2418,10 @@
         <v>98</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2454,13 +2441,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
@@ -2515,7 +2502,7 @@
         <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2535,10 +2522,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -2550,7 +2537,7 @@
         <v>63</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2593,13 +2580,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>110</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>98</v>
@@ -2622,13 +2609,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>174</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>108</v>
@@ -2640,18 +2627,18 @@
         <v>139</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>177</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>102</v>
@@ -2665,13 +2652,13 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="C4" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>109</v>
@@ -2685,13 +2672,13 @@
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>181</v>
-      </c>
       <c r="C5" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>103</v>
@@ -2715,12 +2702,12 @@
   <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2748,10 +2735,10 @@
         <v>74</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>98</v>
@@ -2774,14 +2761,12 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
@@ -2789,19 +2774,17 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>1</v>
       </c>
@@ -2811,38 +2794,38 @@
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="7">
         <v>2000</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
@@ -2853,38 +2836,38 @@
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="7">
         <v>0.0003</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="D9" s="7">
         <v>0.001</v>
@@ -2895,44 +2878,35 @@
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>153</v>
+        <v>196</v>
       </c>
       <c r="D10" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D11" s="2">
         <v>1100</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="D12" s="2">
         <v>1000</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2950,7 +2924,7 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2998,16 +2972,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -3043,10 +3017,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>98</v>
@@ -3055,10 +3029,10 @@
         <v>74</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>29</v>
@@ -3073,22 +3047,22 @@
         <v>33</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>209</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>210</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>18</v>
@@ -3138,10 +3112,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>98</v>
@@ -3150,7 +3124,7 @@
         <v>74</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>18</v>
@@ -3301,46 +3275,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>213</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>214</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>74</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>222</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>223</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3376,8 +3350,8 @@
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="2"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="21"/>
-    <col min="1020" max="16384" width="9" style="21"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="20"/>
+    <col min="1020" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3456,7 +3430,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3506,7 +3480,7 @@
       <c r="C2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="19"/>
       <c r="G2" s="2" t="s">
         <v>41</v>
       </c>
@@ -3539,22 +3513,22 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="8" width="8.78333333333333" style="2"/>
-    <col min="9" max="9" width="8.78333333333333" style="18"/>
-    <col min="10" max="10" width="9.375" style="18"/>
-    <col min="11" max="15" width="8.78333333333333" style="18"/>
-    <col min="16" max="16" width="8.875" style="18" customWidth="1"/>
-    <col min="17" max="1031" width="8.78333333333333" style="18"/>
-    <col min="1032" max="16384" width="9" style="18"/>
+    <col min="9" max="9" width="8.78333333333333" style="17"/>
+    <col min="10" max="10" width="9.375" style="17"/>
+    <col min="11" max="15" width="8.78333333333333" style="17"/>
+    <col min="16" max="16" width="8.875" style="17" customWidth="1"/>
+    <col min="17" max="1031" width="8.78333333333333" style="17"/>
+    <col min="1032" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1030">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3605,7 +3579,7 @@
       <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMP1" s="18"/>
+      <c r="AMP1" s="17"/>
     </row>
     <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
@@ -3771,10 +3745,10 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
@@ -3783,7 +3757,7 @@
       <c r="B3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>81</v>
       </c>
       <c r="E3" s="2">
@@ -3792,10 +3766,10 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
@@ -3804,7 +3778,7 @@
       <c r="B4" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>84</v>
       </c>
       <c r="E4" s="2">
@@ -3813,10 +3787,10 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
@@ -3825,7 +3799,7 @@
       <c r="B5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>87</v>
       </c>
       <c r="E5" s="2">
@@ -3834,10 +3808,10 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
@@ -3846,7 +3820,7 @@
       <c r="B6" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>90</v>
       </c>
       <c r="E6" s="2">
@@ -3855,10 +3829,10 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
@@ -3867,7 +3841,7 @@
       <c r="B7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>93</v>
       </c>
       <c r="E7" s="2">
@@ -3876,7 +3850,7 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>78</v>
       </c>
     </row>
@@ -4122,7 +4096,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -4181,13 +4155,13 @@
       <c r="C2" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4198,13 +4172,13 @@
       <c r="C3" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>0.0002</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4215,13 +4189,13 @@
       <c r="C4" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4232,13 +4206,13 @@
       <c r="C5" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4249,13 +4223,13 @@
       <c r="C6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0.001</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4266,13 +4240,13 @@
       <c r="C7" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>0.002</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4283,13 +4257,13 @@
       <c r="C8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4300,13 +4274,13 @@
       <c r="C9" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="2" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>115</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -728,12 +728,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -762,16 +762,32 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -791,22 +807,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -814,65 +814,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -888,23 +830,81 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,55 +925,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -991,7 +949,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1003,13 +1057,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,13 +1087,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,73 +1105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,17 +1128,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1162,30 +1162,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1195,21 +1171,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1225,139 +1186,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1396,7 +1396,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1405,7 +1405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2265,7 +2265,6 @@
       <c r="D2" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>153</v>
       </c>
@@ -2287,7 +2286,6 @@
       <c r="D3" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>155</v>
       </c>
@@ -2309,7 +2307,6 @@
       <c r="D4" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>157</v>
       </c>
@@ -2331,7 +2328,6 @@
       <c r="D5" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>160</v>
       </c>
@@ -2354,7 +2350,6 @@
       <c r="D6" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>162</v>
       </c>
@@ -2702,7 +2697,7 @@
   <sheetPr/>
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2766,7 +2761,6 @@
       <c r="B2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="2"/>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
@@ -2784,7 +2778,6 @@
       <c r="B3" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="C3" s="2"/>
       <c r="D3" s="2">
         <v>1</v>
       </c>
@@ -3339,10 +3332,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D9" sqref="D9"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>

--- a/tests/multialgorithm/fixtures/test_model.xlsx
+++ b/tests/multialgorithm/fixtures/test_model.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="238">
   <si>
     <t>Id</t>
   </si>
@@ -680,6 +680,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -746,6 +749,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -759,9 +765,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -772,12 +775,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -814,17 +817,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -842,36 +882,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -881,44 +892,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,7 +907,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,8 +921,37 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,7 +972,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,7 +1110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -993,73 +1128,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,85 +1152,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1172,6 +1175,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1187,15 +1199,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1207,6 +1210,41 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1234,173 +1272,138 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1440,7 +1443,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1449,7 +1452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3105,14 +3108,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3123,7 +3126,7 @@
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3156,6 +3159,9 @@
       </c>
       <c r="K1" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -3294,46 +3300,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>71</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -3379,31 +3385,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -3421,14 +3427,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3436,7 +3442,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3447,43 +3453,46 @@
         <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>236</v>
+        <v>208</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
